--- a/テンプレート/テンプレ（変更上書きしないで！）/【テンプレ】リリース内表.xlsx
+++ b/テンプレート/テンプレ（変更上書きしないで！）/【テンプレ】リリース内表.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsuji\AIアプリ開発\release-creator\テンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-tsuji\AIアプリ開発\release-creator\テンプレート\テンプレ（変更上書きしないで！）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1600791-5DE5-4078-AF47-05FBEAC9A383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0466FDC-AF37-4C7A-AEC9-05939B52FE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15915" yWindow="-16440" windowWidth="29040" windowHeight="15720" xr2:uid="{6E343390-06FF-432A-B5B0-133372514813}"/>
   </bookViews>
   <sheets>
-    <sheet name="総合2つ" sheetId="9" r:id="rId1"/>
-    <sheet name="総合＋前回順位 " sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
+    <sheet name="総合1つ" sheetId="11" r:id="rId1"/>
+    <sheet name="総合2つ" sheetId="9" r:id="rId2"/>
+    <sheet name="総合＋前回順位 " sheetId="7" r:id="rId3"/>
     <sheet name=" 評価・部門別 " sheetId="5" r:id="rId4"/>
     <sheet name="複数バージョン " sheetId="8" r:id="rId5"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="55">
   <si>
     <t>順位</t>
     <rPh sb="0" eb="2">
@@ -684,18 +684,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>楽天モバイル</t>
-  </si>
-  <si>
-    <t>au</t>
-  </si>
-  <si>
-    <t>docomo</t>
-  </si>
-  <si>
-    <t>SoftBank</t>
-  </si>
-  <si>
     <r>
       <t>2025年 オリコン顧客満足度</t>
     </r>
@@ -736,9 +724,6 @@
       <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ランキング名 総合ランキング (回答者数：8,464名)</t>
   </si>
   <si>
     <r>
@@ -786,6 +771,40 @@
   </si>
   <si>
     <t>ランキング名 (回答者数：x,xxx名)</t>
+  </si>
+  <si>
+    <r>
+      <t>　　　　　2025年 オリコン顧客満足度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>®</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>調査 総合ランキング</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※上記順位以降はサイトに掲載しております。
+調査主体：株式会社oricon ME（202x年xx月x日発表）</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1062,7 +1081,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1269,17 +1288,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
       <top style="medium">
         <color theme="0"/>
       </top>
@@ -1597,7 +1605,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1777,19 +1785,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1798,10 +1806,10 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1943,7 +1951,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1952,7 +1960,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1970,7 +1978,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1993,9 +2001,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2005,9 +2010,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -2021,13 +2023,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2042,7 +2041,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
@@ -2051,28 +2050,28 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -2086,7 +2085,7 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2098,12 +2097,12 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2123,19 +2122,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,22 +2149,84 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2213,15 +2274,15 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2236,22 +2297,22 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2263,19 +2324,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2287,10 +2351,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2299,33 +2360,33 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2335,12 +2396,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2350,22 +2411,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2376,45 +2434,15 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2424,15 +2452,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2454,49 +2482,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2625,6 +2618,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>59054</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100968</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="441135" cy="537950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4127065F-3211-4298-BBD4-B111D35A71FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761321" y="343129"/>
+          <a:ext cx="441135" cy="537950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>955049</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2670,7 +2712,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3059,12 +3101,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03D3E37-3955-4A64-954C-F85838A514C1}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="0.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.90625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="1.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.6328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="38.90625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="170"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="193" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="194"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="170"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="195" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="195"/>
+      <c r="E4" s="196"/>
+    </row>
+    <row r="5" spans="1:9" s="40" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="39"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="197" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="197"/>
+      <c r="E11" s="198"/>
+    </row>
+    <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="177"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:10" s="40" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="178"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="40" spans="11:11" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="178"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C11:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DD1992-88FC-4B3F-9401-F35963266A78}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H3"/>
+    <sheetView showGridLines="0" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -3084,53 +3316,53 @@
     <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="D1" s="184" t="s">
+      <c r="D1" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="173"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="170"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="173"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="173"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="170"/>
     </row>
     <row r="4" spans="1:9" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="204"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="188" t="s">
+      <c r="G4" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="188"/>
-      <c r="I4" s="189"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="204"/>
     </row>
     <row r="5" spans="1:9" s="40" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
-      <c r="B5" s="174"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="54" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3372,7 @@
       <c r="E5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="175"/>
+      <c r="F5" s="172"/>
       <c r="G5" s="54" t="s">
         <v>0</v>
       </c>
@@ -3153,7 +3385,7 @@
     </row>
     <row r="6" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25"/>
-      <c r="B6" s="176"/>
+      <c r="B6" s="173"/>
       <c r="C6" s="16" t="s">
         <v>3</v>
       </c>
@@ -3163,7 +3395,7 @@
       <c r="E6" s="17">
         <v>0</v>
       </c>
-      <c r="F6" s="177"/>
+      <c r="F6" s="174"/>
       <c r="G6" s="16" t="s">
         <v>3</v>
       </c>
@@ -3176,7 +3408,7 @@
     </row>
     <row r="7" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25"/>
-      <c r="B7" s="176"/>
+      <c r="B7" s="173"/>
       <c r="C7" s="18" t="s">
         <v>4</v>
       </c>
@@ -3186,7 +3418,7 @@
       <c r="E7" s="19">
         <v>0</v>
       </c>
-      <c r="F7" s="177"/>
+      <c r="F7" s="174"/>
       <c r="G7" s="18" t="s">
         <v>4</v>
       </c>
@@ -3199,7 +3431,7 @@
     </row>
     <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25"/>
-      <c r="B8" s="176"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="20" t="s">
         <v>5</v>
       </c>
@@ -3209,7 +3441,7 @@
       <c r="E8" s="21">
         <v>0</v>
       </c>
-      <c r="F8" s="177"/>
+      <c r="F8" s="174"/>
       <c r="G8" s="20" t="s">
         <v>5</v>
       </c>
@@ -3222,21 +3454,21 @@
     </row>
     <row r="9" spans="1:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
-      <c r="B9" s="178"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="179" t="s">
+      <c r="D9" s="176" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="23">
         <v>0</v>
       </c>
-      <c r="F9" s="178"/>
+      <c r="F9" s="175"/>
       <c r="G9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="179" t="s">
+      <c r="H9" s="176" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="23">
@@ -3245,21 +3477,21 @@
     </row>
     <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
-      <c r="B10" s="178"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="176" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="23">
         <v>0</v>
       </c>
-      <c r="F10" s="178"/>
+      <c r="F10" s="175"/>
       <c r="G10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="179" t="s">
+      <c r="H10" s="176" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="23">
@@ -3268,20 +3500,20 @@
     </row>
     <row r="11" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="182" t="s">
+      <c r="C11" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="182"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="182" t="s">
+      <c r="D11" s="197"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="182"/>
-      <c r="I11" s="183"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="198"/>
     </row>
     <row r="12" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="180"/>
+      <c r="I12" s="177"/>
     </row>
     <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3305,11 +3537,11 @@
     <row r="25" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="181"/>
+      <c r="A29" s="178"/>
       <c r="J29" s="5"/>
     </row>
     <row r="40" spans="11:11" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K40" s="181"/>
+      <c r="K40" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3326,7 +3558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD325FD-08EE-4DEA-9C6B-C4725F7F90A8}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
@@ -3334,7 +3566,7 @@
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -3364,10 +3596,10 @@
       <c r="B1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="155"/>
+      <c r="F1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="152"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -3375,81 +3607,81 @@
     </row>
     <row r="2" spans="1:20" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="157"/>
+      <c r="D2" s="154"/>
       <c r="F2" s="87" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="182" t="s">
+      <c r="H2" s="137"/>
+      <c r="I2" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="183"/>
+      <c r="J2" s="198"/>
       <c r="K2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="218" t="s">
+      <c r="M2" s="233" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="219"/>
+      <c r="N2" s="234"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="231" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
       <c r="F3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="210" t="s">
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="225" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="211"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="221"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
+      <c r="B4" s="231"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="119"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="223"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="226"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="238"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="217"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
       <c r="E5" s="71"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="213"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="228"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3461,10 +3693,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="215"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="230"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -3472,12 +3704,12 @@
     </row>
     <row r="7" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="D7" s="279"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="284"/>
+      <c r="D7" s="179"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="182"/>
       <c r="L7" s="51"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
       <c r="O7" s="51"/>
       <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
@@ -3488,51 +3720,51 @@
     <row r="8" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="73"/>
-      <c r="C8" s="281" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="279"/>
+      <c r="C8" s="180" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="179"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="289" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="286"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="187" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="184"/>
       <c r="L8" s="51"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
+      <c r="M8" s="217"/>
+      <c r="N8" s="217"/>
       <c r="O8" s="96"/>
       <c r="P8" s="98"/>
       <c r="Q8" s="98"/>
-      <c r="R8" s="190"/>
-      <c r="S8" s="190"/>
-      <c r="T8" s="191"/>
+      <c r="R8" s="205"/>
+      <c r="S8" s="205"/>
+      <c r="T8" s="206"/>
     </row>
     <row r="9" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="282" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="280"/>
+      <c r="C9" s="188" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="141"/>
       <c r="E9" s="73"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
-      <c r="H9" s="287"/>
-      <c r="I9" s="290" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="288"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="188" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="186"/>
       <c r="L9" s="100"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="203"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
       <c r="O9" s="100"/>
       <c r="P9" s="101"/>
       <c r="Q9" s="101"/>
-      <c r="R9" s="192"/>
-      <c r="S9" s="192"/>
-      <c r="T9" s="193"/>
+      <c r="R9" s="207"/>
+      <c r="S9" s="207"/>
+      <c r="T9" s="208"/>
     </row>
     <row r="10" spans="1:20" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
@@ -3546,10 +3778,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="195"/>
+      <c r="F10" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="210"/>
       <c r="H10" s="55" t="s">
         <v>12</v>
       </c>
@@ -3563,8 +3795,8 @@
       <c r="M10" s="49"/>
       <c r="N10" s="49"/>
       <c r="O10" s="102"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="197"/>
+      <c r="P10" s="211"/>
+      <c r="Q10" s="212"/>
       <c r="R10" s="103"/>
       <c r="S10" s="103"/>
       <c r="T10" s="103"/>
@@ -3575,10 +3807,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D11" s="17">
-        <v>69.520559000000006</v>
+        <v>0</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="34"/>
@@ -3597,7 +3829,7 @@
       <c r="L11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="158" t="s">
+      <c r="M11" s="155" t="s">
         <v>40</v>
       </c>
       <c r="O11" s="104"/>
@@ -3613,10 +3845,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D12" s="19">
-        <v>66.846626000000001</v>
+        <v>0</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="35"/>
@@ -3635,7 +3867,7 @@
       <c r="L12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="159" t="s">
+      <c r="M12" s="156" t="s">
         <v>41</v>
       </c>
       <c r="O12" s="104"/>
@@ -3651,10 +3883,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D13" s="21">
-        <v>66.548928000000004</v>
+        <v>0</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="36"/>
@@ -3686,10 +3918,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="112" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D14" s="23">
-        <v>66.177816000000007</v>
+        <v>0</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="37"/>
@@ -3717,11 +3949,15 @@
     </row>
     <row r="15" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="182" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="183"/>
+      <c r="B15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
       <c r="E15" s="25"/>
       <c r="F15" s="37"/>
       <c r="G15" s="32">
@@ -3748,97 +3984,100 @@
     </row>
     <row r="16" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="133"/>
+      <c r="B16" s="197" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="197"/>
+      <c r="D16" s="198"/>
       <c r="E16" s="25"/>
       <c r="F16" s="87"/>
       <c r="G16" s="88"/>
-      <c r="H16" s="224" t="s">
+      <c r="H16" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="225"/>
-      <c r="J16" s="226"/>
+      <c r="I16" s="240"/>
+      <c r="J16" s="241"/>
       <c r="L16" s="96"/>
       <c r="M16" s="123"/>
       <c r="N16" s="104"/>
       <c r="O16" s="104"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
       <c r="S16" s="123"/>
       <c r="T16" s="104"/>
     </row>
     <row r="17" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="25"/>
       <c r="F17" s="87"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
       <c r="L17" s="96"/>
       <c r="M17" s="123"/>
       <c r="N17" s="104"/>
       <c r="O17" s="104"/>
-      <c r="P17" s="129"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
       <c r="S17" s="123"/>
       <c r="T17" s="104"/>
     </row>
     <row r="18" spans="1:20" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="140"/>
       <c r="L18" s="96"/>
       <c r="M18" s="123"/>
       <c r="N18" s="104"/>
       <c r="O18" s="104"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="130"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="129"/>
       <c r="S18" s="123"/>
       <c r="T18" s="104"/>
     </row>
     <row r="19" spans="1:20" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="216"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="231"/>
       <c r="E19" s="25"/>
       <c r="F19" s="87"/>
-      <c r="H19" s="227"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="183"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="198"/>
       <c r="L19" s="96"/>
       <c r="M19" s="123"/>
       <c r="N19" s="104"/>
       <c r="O19" s="104"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="130"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
       <c r="S19" s="123"/>
       <c r="T19" s="104"/>
     </row>
     <row r="20" spans="1:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
       <c r="E20" s="119"/>
       <c r="F20" s="87"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="183"/>
+      <c r="G20" s="242"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="198"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="106"/>
@@ -3849,16 +4088,15 @@
       <c r="S20" s="51"/>
       <c r="T20" s="106"/>
     </row>
-    <row r="21" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="51"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="51"/>
+    <row r="21" spans="1:20" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
       <c r="E21" s="119"/>
       <c r="F21" s="119"/>
-      <c r="G21" s="228"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="215"/>
+      <c r="G21" s="243"/>
+      <c r="H21" s="229"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="230"/>
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="107"/>
@@ -3871,24 +4109,24 @@
     </row>
     <row r="22" spans="1:20" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="51"/>
       <c r="F22" s="71"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
-      <c r="O22" s="198"/>
-      <c r="P22" s="199"/>
-      <c r="Q22" s="199"/>
-      <c r="R22" s="199"/>
-      <c r="S22" s="199"/>
-      <c r="T22" s="200"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="214"/>
+      <c r="Q22" s="214"/>
+      <c r="R22" s="214"/>
+      <c r="S22" s="214"/>
+      <c r="T22" s="215"/>
     </row>
     <row r="23" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="51"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
       <c r="E23" s="51"/>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -3896,8 +4134,8 @@
       <c r="I23" s="71"/>
       <c r="J23" s="71"/>
       <c r="L23" s="51"/>
-      <c r="M23" s="201"/>
-      <c r="N23" s="201"/>
+      <c r="M23" s="216"/>
+      <c r="N23" s="216"/>
       <c r="O23" s="51"/>
       <c r="P23" s="71"/>
       <c r="Q23" s="71"/>
@@ -3905,56 +4143,56 @@
       <c r="S23" s="71"/>
       <c r="T23" s="71"/>
     </row>
-    <row r="24" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="96"/>
       <c r="F24" s="98"/>
       <c r="G24" s="98"/>
-      <c r="H24" s="190"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="191"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="206"/>
       <c r="L24" s="99"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="202"/>
+      <c r="M24" s="217"/>
+      <c r="N24" s="217"/>
       <c r="O24" s="96"/>
       <c r="P24" s="98"/>
       <c r="Q24" s="98"/>
-      <c r="R24" s="190"/>
-      <c r="S24" s="190"/>
-      <c r="T24" s="191"/>
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="206"/>
     </row>
     <row r="25" spans="1:20" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="100"/>
       <c r="F25" s="101"/>
       <c r="G25" s="101"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="193"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="208"/>
       <c r="L25" s="100"/>
-      <c r="M25" s="203"/>
-      <c r="N25" s="203"/>
+      <c r="M25" s="218"/>
+      <c r="N25" s="218"/>
       <c r="O25" s="100"/>
       <c r="P25" s="101"/>
       <c r="Q25" s="101"/>
-      <c r="R25" s="192"/>
-      <c r="S25" s="192"/>
-      <c r="T25" s="193"/>
+      <c r="R25" s="207"/>
+      <c r="S25" s="207"/>
+      <c r="T25" s="208"/>
     </row>
     <row r="26" spans="1:20" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="86"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="102"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="197"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="212"/>
       <c r="H26" s="103"/>
       <c r="I26" s="103"/>
       <c r="J26" s="103"/>
@@ -3962,8 +4200,8 @@
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
       <c r="O26" s="102"/>
-      <c r="P26" s="196"/>
-      <c r="Q26" s="197"/>
+      <c r="P26" s="211"/>
+      <c r="Q26" s="212"/>
       <c r="R26" s="103"/>
       <c r="S26" s="103"/>
       <c r="T26" s="103"/>
@@ -3971,7 +4209,7 @@
     <row r="27" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="85"/>
-      <c r="C27" s="50"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="86"/>
       <c r="E27" s="104"/>
       <c r="F27" s="87"/>
@@ -3992,7 +4230,7 @@
     <row r="28" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="85"/>
-      <c r="C28" s="47"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="86"/>
       <c r="E28" s="104"/>
       <c r="F28" s="87"/>
@@ -4033,9 +4271,9 @@
     </row>
     <row r="30" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="204"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="206"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="104"/>
       <c r="F30" s="87"/>
       <c r="G30" s="88"/>
@@ -4054,15 +4292,15 @@
     </row>
     <row r="31" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="107"/>
+      <c r="B31" s="219"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="221"/>
       <c r="E31" s="104"/>
       <c r="F31" s="87"/>
-      <c r="G31" s="205"/>
-      <c r="H31" s="205"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="205"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="220"/>
       <c r="K31" s="111"/>
       <c r="L31" s="85"/>
       <c r="M31" s="47"/>
@@ -4077,7 +4315,7 @@
     <row r="32" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="D32" s="107"/>
       <c r="E32" s="51"/>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
@@ -4095,6 +4333,9 @@
       <c r="T32" s="106"/>
     </row>
     <row r="33" spans="1:21" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
       <c r="E33" s="51"/>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
@@ -4112,15 +4353,12 @@
       <c r="T33" s="108"/>
     </row>
     <row r="34" spans="1:21" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="58"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="208"/>
-      <c r="G34" s="208"/>
-      <c r="H34" s="208"/>
-      <c r="I34" s="208"/>
-      <c r="J34" s="209"/>
+      <c r="E34" s="222"/>
+      <c r="F34" s="223"/>
+      <c r="G34" s="223"/>
+      <c r="H34" s="223"/>
+      <c r="I34" s="223"/>
+      <c r="J34" s="224"/>
       <c r="L34" s="51"/>
       <c r="M34" s="51"/>
       <c r="N34" s="51"/>
@@ -4131,11 +4369,11 @@
       <c r="S34" s="71"/>
       <c r="T34" s="71"/>
     </row>
-    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="202"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
       <c r="E35" s="58"/>
       <c r="F35" s="97"/>
       <c r="G35" s="97"/>
@@ -4143,8 +4381,8 @@
       <c r="I35" s="97"/>
       <c r="J35" s="109"/>
       <c r="L35" s="58"/>
-      <c r="M35" s="201"/>
-      <c r="N35" s="201"/>
+      <c r="M35" s="216"/>
+      <c r="N35" s="216"/>
       <c r="O35" s="58"/>
       <c r="P35" s="97"/>
       <c r="Q35" s="97"/>
@@ -4152,56 +4390,56 @@
       <c r="S35" s="97"/>
       <c r="T35" s="109"/>
     </row>
-    <row r="36" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="203"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="217"/>
       <c r="E36" s="96"/>
       <c r="F36" s="98"/>
       <c r="G36" s="98"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="191"/>
+      <c r="H36" s="205"/>
+      <c r="I36" s="205"/>
+      <c r="J36" s="206"/>
       <c r="L36" s="99"/>
-      <c r="M36" s="202"/>
-      <c r="N36" s="202"/>
+      <c r="M36" s="217"/>
+      <c r="N36" s="217"/>
       <c r="O36" s="96"/>
       <c r="P36" s="98"/>
       <c r="Q36" s="98"/>
-      <c r="R36" s="190"/>
-      <c r="S36" s="190"/>
-      <c r="T36" s="191"/>
+      <c r="R36" s="205"/>
+      <c r="S36" s="205"/>
+      <c r="T36" s="206"/>
     </row>
     <row r="37" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="218"/>
       <c r="E37" s="100"/>
       <c r="F37" s="101"/>
       <c r="G37" s="101"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="193"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="208"/>
       <c r="L37" s="100"/>
-      <c r="M37" s="203"/>
-      <c r="N37" s="203"/>
+      <c r="M37" s="218"/>
+      <c r="N37" s="218"/>
       <c r="O37" s="100"/>
       <c r="P37" s="101"/>
       <c r="Q37" s="101"/>
-      <c r="R37" s="192"/>
-      <c r="S37" s="192"/>
-      <c r="T37" s="193"/>
+      <c r="R37" s="207"/>
+      <c r="S37" s="207"/>
+      <c r="T37" s="208"/>
     </row>
     <row r="38" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="38"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="86"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="102"/>
-      <c r="F38" s="196"/>
-      <c r="G38" s="197"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="212"/>
       <c r="H38" s="103"/>
       <c r="I38" s="103"/>
       <c r="J38" s="103"/>
@@ -4209,8 +4447,8 @@
       <c r="M38" s="49"/>
       <c r="N38" s="49"/>
       <c r="O38" s="102"/>
-      <c r="P38" s="196"/>
-      <c r="Q38" s="197"/>
+      <c r="P38" s="211"/>
+      <c r="Q38" s="212"/>
       <c r="R38" s="103"/>
       <c r="S38" s="103"/>
       <c r="T38" s="103"/>
@@ -4240,7 +4478,7 @@
     <row r="40" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="85"/>
-      <c r="C40" s="47"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="86"/>
       <c r="E40" s="104"/>
       <c r="F40" s="87"/>
@@ -4305,9 +4543,9 @@
     </row>
     <row r="43" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="106"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="86"/>
       <c r="E43" s="104"/>
       <c r="F43" s="87"/>
       <c r="G43" s="88"/>
@@ -4328,7 +4566,7 @@
     <row r="44" spans="1:21" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
-      <c r="D44" s="107"/>
+      <c r="D44" s="106"/>
       <c r="E44" s="51"/>
       <c r="F44" s="51"/>
       <c r="G44" s="51"/>
@@ -4349,7 +4587,7 @@
     <row r="45" spans="1:21" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="D45" s="107"/>
       <c r="E45" s="51"/>
       <c r="F45" s="51"/>
       <c r="G45" s="51"/>
@@ -4369,8 +4607,8 @@
     </row>
     <row r="46" spans="1:21" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="51"/>
-      <c r="C46" s="201"/>
-      <c r="D46" s="201"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="51"/>
       <c r="F46" s="71"/>
       <c r="G46" s="71"/>
@@ -4380,18 +4618,18 @@
       <c r="L46" s="51"/>
       <c r="M46" s="51"/>
       <c r="N46" s="51"/>
-      <c r="O46" s="198"/>
-      <c r="P46" s="199"/>
-      <c r="Q46" s="199"/>
-      <c r="R46" s="199"/>
-      <c r="S46" s="199"/>
-      <c r="T46" s="200"/>
+      <c r="O46" s="213"/>
+      <c r="P46" s="214"/>
+      <c r="Q46" s="214"/>
+      <c r="R46" s="214"/>
+      <c r="S46" s="214"/>
+      <c r="T46" s="215"/>
       <c r="U46" s="51"/>
     </row>
     <row r="47" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="99"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
       <c r="E47" s="51"/>
       <c r="F47" s="71"/>
       <c r="G47" s="71"/>
@@ -4399,8 +4637,8 @@
       <c r="I47" s="71"/>
       <c r="J47" s="71"/>
       <c r="L47" s="51"/>
-      <c r="M47" s="201"/>
-      <c r="N47" s="201"/>
+      <c r="M47" s="216"/>
+      <c r="N47" s="216"/>
       <c r="O47" s="51"/>
       <c r="P47" s="71"/>
       <c r="Q47" s="71"/>
@@ -4409,60 +4647,60 @@
       <c r="T47" s="71"/>
       <c r="U47" s="51"/>
     </row>
-    <row r="48" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="203"/>
-      <c r="D48" s="203"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="217"/>
+      <c r="D48" s="217"/>
       <c r="E48" s="96"/>
       <c r="F48" s="98"/>
       <c r="G48" s="98"/>
-      <c r="H48" s="190"/>
-      <c r="I48" s="190"/>
-      <c r="J48" s="191"/>
+      <c r="H48" s="205"/>
+      <c r="I48" s="205"/>
+      <c r="J48" s="206"/>
       <c r="K48" s="2"/>
       <c r="L48" s="99"/>
-      <c r="M48" s="202"/>
-      <c r="N48" s="202"/>
+      <c r="M48" s="217"/>
+      <c r="N48" s="217"/>
       <c r="O48" s="96"/>
       <c r="P48" s="98"/>
       <c r="Q48" s="98"/>
-      <c r="R48" s="190"/>
-      <c r="S48" s="190"/>
-      <c r="T48" s="191"/>
+      <c r="R48" s="205"/>
+      <c r="S48" s="205"/>
+      <c r="T48" s="206"/>
       <c r="U48" s="51"/>
     </row>
     <row r="49" spans="1:21" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="218"/>
+      <c r="D49" s="218"/>
       <c r="E49" s="100"/>
       <c r="F49" s="101"/>
       <c r="G49" s="101"/>
-      <c r="H49" s="192"/>
-      <c r="I49" s="192"/>
-      <c r="J49" s="193"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="207"/>
+      <c r="J49" s="208"/>
       <c r="K49" s="2"/>
       <c r="L49" s="100"/>
-      <c r="M49" s="203"/>
-      <c r="N49" s="203"/>
+      <c r="M49" s="218"/>
+      <c r="N49" s="218"/>
       <c r="O49" s="100"/>
       <c r="P49" s="101"/>
       <c r="Q49" s="101"/>
-      <c r="R49" s="192"/>
-      <c r="S49" s="192"/>
-      <c r="T49" s="193"/>
+      <c r="R49" s="207"/>
+      <c r="S49" s="207"/>
+      <c r="T49" s="208"/>
       <c r="U49" s="51"/>
     </row>
     <row r="50" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="86"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="102"/>
-      <c r="F50" s="196"/>
-      <c r="G50" s="197"/>
+      <c r="F50" s="211"/>
+      <c r="G50" s="212"/>
       <c r="H50" s="103"/>
       <c r="I50" s="103"/>
       <c r="J50" s="103"/>
@@ -4471,8 +4709,8 @@
       <c r="M50" s="49"/>
       <c r="N50" s="49"/>
       <c r="O50" s="102"/>
-      <c r="P50" s="196"/>
-      <c r="Q50" s="197"/>
+      <c r="P50" s="211"/>
+      <c r="Q50" s="212"/>
       <c r="R50" s="103"/>
       <c r="S50" s="103"/>
       <c r="T50" s="103"/>
@@ -4481,7 +4719,7 @@
     <row r="51" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="50"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="86"/>
       <c r="E51" s="104"/>
       <c r="F51" s="87"/>
@@ -4504,7 +4742,7 @@
     <row r="52" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="47"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="86"/>
       <c r="E52" s="104"/>
       <c r="F52" s="87"/>
@@ -4550,7 +4788,7 @@
     <row r="54" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="85"/>
-      <c r="C54" s="110"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="86"/>
       <c r="E54" s="104"/>
       <c r="F54" s="87"/>
@@ -4572,9 +4810,9 @@
     </row>
     <row r="55" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="106"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="86"/>
       <c r="E55" s="104"/>
       <c r="F55" s="87"/>
       <c r="G55" s="88"/>
@@ -4596,7 +4834,7 @@
     <row r="56" spans="1:21" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
-      <c r="D56" s="107"/>
+      <c r="D56" s="106"/>
       <c r="E56" s="51"/>
       <c r="F56" s="51"/>
       <c r="G56" s="51"/>
@@ -4618,7 +4856,7 @@
     <row r="57" spans="1:21" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="D57" s="107"/>
       <c r="E57" s="51"/>
       <c r="F57" s="51"/>
       <c r="G57" s="51"/>
@@ -4682,6 +4920,9 @@
       <c r="U59" s="51"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="51"/>
       <c r="F60" s="71"/>
       <c r="G60" s="71"/>
@@ -4709,23 +4950,23 @@
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="M7:N9"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C19:D20"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="G20:J21"/>
     <mergeCell ref="P50:Q50"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C46:D48"/>
+    <mergeCell ref="C47:D49"/>
     <mergeCell ref="M47:N49"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="E34:J34"/>
-    <mergeCell ref="C34:D36"/>
+    <mergeCell ref="C35:D37"/>
     <mergeCell ref="O22:T22"/>
     <mergeCell ref="M23:N25"/>
     <mergeCell ref="H24:J24"/>
@@ -4825,32 +5066,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC5F1D0-C13A-44D9-AA84-7947A2A743DB}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A61677-6721-4CB2-8CFE-B42EB175CAA2}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X60"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4893,38 +5116,38 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="235" t="s">
+      <c r="E2" s="145"/>
+      <c r="F2" s="249" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="149"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="6"/>
       <c r="M2" s="52"/>
       <c r="R2" s="5"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="258" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="245"/>
+      <c r="C3" s="259"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="149"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="146"/>
       <c r="L3" s="6"/>
       <c r="M3" s="52"/>
       <c r="R3" s="5"/>
@@ -4934,13 +5157,13 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="243"/>
-      <c r="K4" s="149"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="257"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
       <c r="R4" s="5"/>
@@ -4951,11 +5174,11 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="52"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="150"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="147"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="52"/>
@@ -4985,8 +5208,8 @@
         <v>45</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="152"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="149"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -5418,961 +5641,1377 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="127"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="229" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="229"/>
-      <c r="N19" s="229"/>
-      <c r="O19" s="229"/>
-      <c r="P19" s="230"/>
+      <c r="B19" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
+    <row r="20" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="49"/>
+      <c r="N20" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="54" t="s">
+        <v>8</v>
+      </c>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:24" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="48"/>
+      <c r="J21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="17">
+        <v>0</v>
+      </c>
+      <c r="M21" s="48"/>
+      <c r="N21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="17">
+        <v>0</v>
+      </c>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="48"/>
+      <c r="J22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="19">
+        <v>0</v>
+      </c>
+      <c r="M22" s="48"/>
+      <c r="N22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="19">
+        <v>0</v>
+      </c>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="21">
+        <v>0</v>
+      </c>
+      <c r="I23" s="48"/>
+      <c r="J23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="48"/>
+      <c r="N23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="21">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="127"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="283"/>
+      <c r="M24" s="283"/>
+      <c r="N24" s="244" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="244"/>
+      <c r="P24" s="244"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="169"/>
+    </row>
+    <row r="25" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="1:24" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="57"/>
-      <c r="S21" s="8"/>
-    </row>
-    <row r="22" spans="1:24" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="15" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="57"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="1:24" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="246" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="67"/>
+      <c r="B28" s="260" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="246"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-    </row>
-    <row r="24" spans="1:24" s="69" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="75" t="s">
+      <c r="C28" s="261"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="260"/>
+      <c r="G28" s="261"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+    </row>
+    <row r="29" spans="1:24" s="69" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="75" t="s">
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="75" t="s">
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="75" t="s">
+      <c r="K29" s="65"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="65"/>
-      <c r="P24" s="66"/>
-      <c r="V24" s="248"/>
-      <c r="W24" s="249"/>
-      <c r="X24" s="68"/>
-    </row>
-    <row r="25" spans="1:24" s="40" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="41"/>
-      <c r="B25" s="54" t="s">
+      <c r="O29" s="65"/>
+      <c r="P29" s="66"/>
+      <c r="V29" s="262"/>
+      <c r="W29" s="263"/>
+      <c r="X29" s="68"/>
+    </row>
+    <row r="30" spans="1:24" s="40" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="41"/>
+      <c r="B30" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C30" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D30" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="54" t="s">
+      <c r="E30" s="49"/>
+      <c r="F30" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G30" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H30" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="54" t="s">
+      <c r="I30" s="49"/>
+      <c r="J30" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="54" t="s">
+      <c r="K30" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="54" t="s">
+      <c r="L30" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="49"/>
-      <c r="N25" s="54" t="s">
+      <c r="M30" s="49"/>
+      <c r="N30" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="54" t="s">
+      <c r="O30" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="54" t="s">
+      <c r="P30" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-    </row>
-    <row r="26" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="10" t="s">
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+    </row>
+    <row r="31" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="10" t="s">
+      <c r="D31" s="17">
+        <v>0</v>
+      </c>
+      <c r="E31" s="48"/>
+      <c r="F31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="10" t="s">
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31" s="48"/>
+      <c r="J31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="17">
-        <v>0</v>
-      </c>
-      <c r="M26" s="48"/>
-      <c r="N26" s="10" t="s">
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="48"/>
+      <c r="N31" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="17">
-        <v>0</v>
-      </c>
-      <c r="V26" s="46"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="48"/>
-    </row>
-    <row r="27" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="19">
-        <v>0</v>
-      </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="19">
-        <v>0</v>
-      </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="19">
-        <v>0</v>
-      </c>
-      <c r="M27" s="48"/>
-      <c r="N27" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="19">
-        <v>0</v>
-      </c>
-      <c r="V27" s="46"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="48"/>
-    </row>
-    <row r="28" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="21">
-        <v>0</v>
-      </c>
-      <c r="I28" s="48"/>
-      <c r="J28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="21">
-        <v>0</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" s="21">
-        <v>0</v>
-      </c>
-      <c r="V28" s="46"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="48"/>
-    </row>
-    <row r="29" spans="1:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="246" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="247"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="104"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="115"/>
-      <c r="W29" s="116"/>
-      <c r="X29" s="117"/>
-    </row>
-    <row r="30" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="O30" s="65"/>
-      <c r="P30" s="51"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="115"/>
-      <c r="W30" s="116"/>
-      <c r="X30" s="117"/>
-    </row>
-    <row r="31" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="49"/>
-      <c r="J31" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="49"/>
-      <c r="N31" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="O31" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="P31" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="114"/>
-      <c r="V31" s="124"/>
-      <c r="W31" s="125"/>
-      <c r="X31" s="53"/>
+      <c r="P31" s="17">
+        <v>0</v>
+      </c>
+      <c r="V31" s="46"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="48"/>
     </row>
     <row r="32" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="19">
+        <v>0</v>
+      </c>
+      <c r="I32" s="48"/>
+      <c r="J32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="19">
+        <v>0</v>
+      </c>
+      <c r="M32" s="48"/>
+      <c r="N32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="19">
+        <v>0</v>
+      </c>
+      <c r="V32" s="46"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="48"/>
+    </row>
+    <row r="33" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="21">
+        <v>0</v>
+      </c>
+      <c r="I33" s="48"/>
+      <c r="J33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="21">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P33" s="21">
+        <v>0</v>
+      </c>
+      <c r="V33" s="46"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="48"/>
+    </row>
+    <row r="34" spans="1:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="260" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="261"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="104"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="115"/>
+      <c r="W34" s="116"/>
+      <c r="X34" s="117"/>
+    </row>
+    <row r="35" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="65"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="65"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="65"/>
+      <c r="P35" s="51"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="115"/>
+      <c r="W35" s="116"/>
+      <c r="X35" s="117"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="49"/>
+      <c r="F36" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="49"/>
+      <c r="J36" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="49"/>
+      <c r="N36" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="U36" s="114"/>
+      <c r="V36" s="124"/>
+      <c r="W36" s="125"/>
+      <c r="X36" s="53"/>
+    </row>
+    <row r="37" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="17">
-        <v>0</v>
-      </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="10" t="s">
+      <c r="D37" s="17">
+        <v>0</v>
+      </c>
+      <c r="E37" s="48"/>
+      <c r="F37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="17">
-        <v>0</v>
-      </c>
-      <c r="I32" s="48"/>
-      <c r="J32" s="10" t="s">
+      <c r="H37" s="17">
+        <v>0</v>
+      </c>
+      <c r="I37" s="48"/>
+      <c r="J37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="17">
-        <v>0</v>
-      </c>
-      <c r="M32" s="48"/>
-      <c r="N32" s="10" t="s">
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="48"/>
+      <c r="N37" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="9" t="s">
+      <c r="O37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P32" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" s="80" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="12" t="s">
+      <c r="P37" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" s="80" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="81"/>
+      <c r="B38" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="19">
-        <v>0</v>
-      </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="12" t="s">
+      <c r="D38" s="19">
+        <v>0</v>
+      </c>
+      <c r="E38" s="48"/>
+      <c r="F38" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="19">
-        <v>0</v>
-      </c>
-      <c r="I33" s="48"/>
-      <c r="J33" s="12" t="s">
+      <c r="H38" s="19">
+        <v>0</v>
+      </c>
+      <c r="I38" s="48"/>
+      <c r="J38" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="19">
-        <v>0</v>
-      </c>
-      <c r="M33" s="48"/>
-      <c r="N33" s="12" t="s">
+      <c r="L38" s="19">
+        <v>0</v>
+      </c>
+      <c r="M38" s="48"/>
+      <c r="N38" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O33" s="13" t="s">
+      <c r="O38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P33" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="83"/>
-      <c r="U33" s="84"/>
-    </row>
-    <row r="34" spans="1:24" s="40" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="41"/>
-      <c r="B34" s="11" t="s">
+      <c r="P38" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="84"/>
+    </row>
+    <row r="39" spans="1:24" s="40" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="41"/>
+      <c r="B39" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="21">
-        <v>0</v>
-      </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="11" t="s">
+      <c r="D39" s="21">
+        <v>0</v>
+      </c>
+      <c r="E39" s="51"/>
+      <c r="F39" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="21">
-        <v>0</v>
-      </c>
-      <c r="I34" s="48"/>
-      <c r="J34" s="11" t="s">
+      <c r="H39" s="21">
+        <v>0</v>
+      </c>
+      <c r="I39" s="48"/>
+      <c r="J39" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="21">
-        <v>0</v>
-      </c>
-      <c r="M34" s="51"/>
-      <c r="N34" s="11" t="s">
+      <c r="L39" s="21">
+        <v>0</v>
+      </c>
+      <c r="M39" s="51"/>
+      <c r="N39" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P34" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="62"/>
-    </row>
-    <row r="35" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="86"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="231" t="s">
-        <v>28</v>
-      </c>
-      <c r="O35" s="232"/>
-      <c r="P35" s="233"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="51"/>
-    </row>
-    <row r="36" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="86"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="86"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="51"/>
-    </row>
-    <row r="37" spans="1:24" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="B37" s="46"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="139"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="234"/>
-      <c r="O37" s="234"/>
-      <c r="P37" s="234"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="64"/>
-    </row>
-    <row r="38" spans="1:24" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="258"/>
-      <c r="M38" s="259"/>
-      <c r="N38" s="259"/>
-      <c r="O38" s="259"/>
-      <c r="P38" s="260"/>
-    </row>
-    <row r="39" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67"/>
-      <c r="B39" s="246"/>
-      <c r="C39" s="247"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="246"/>
-      <c r="G39" s="250"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="261"/>
-      <c r="M39" s="239"/>
-      <c r="N39" s="239"/>
-      <c r="O39" s="239"/>
-      <c r="P39" s="262"/>
-    </row>
-    <row r="40" spans="1:24" s="69" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="66"/>
-      <c r="V40" s="248"/>
-      <c r="W40" s="249"/>
-      <c r="X40" s="68"/>
-    </row>
-    <row r="41" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="41"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="131"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="V41" s="49"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="49"/>
-    </row>
-    <row r="42" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P39" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="62"/>
+    </row>
+    <row r="40" spans="1:24" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="284" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="285"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="104"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="51"/>
+    </row>
+    <row r="41" spans="1:24" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="65"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="65"/>
+      <c r="P41" s="51"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="51"/>
+    </row>
+    <row r="42" spans="1:24" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="86"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="48"/>
-    </row>
-    <row r="43" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="49"/>
+      <c r="F42" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="49"/>
+      <c r="J42" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="49"/>
+      <c r="N42" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="P42" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="64"/>
+    </row>
+    <row r="43" spans="1:24" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="86"/>
+      <c r="B43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="17">
+        <v>0</v>
+      </c>
       <c r="E43" s="48"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="86"/>
+      <c r="F43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0</v>
+      </c>
       <c r="I43" s="48"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="86"/>
+      <c r="J43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
       <c r="M43" s="48"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="86"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="50"/>
-      <c r="X43" s="48"/>
-    </row>
-    <row r="44" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="86"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="86"/>
+      <c r="N43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" s="69" customFormat="1" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="67"/>
+      <c r="B44" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0</v>
+      </c>
+      <c r="E44" s="48"/>
+      <c r="F44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="19">
+        <v>0</v>
+      </c>
       <c r="I44" s="48"/>
-      <c r="J44" s="253"/>
-      <c r="K44" s="254"/>
-      <c r="L44" s="255"/>
+      <c r="J44" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="19">
+        <v>0</v>
+      </c>
       <c r="M44" s="48"/>
-      <c r="N44" s="253"/>
-      <c r="O44" s="254"/>
-      <c r="P44" s="255"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="48"/>
-    </row>
-    <row r="45" spans="1:24" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="66"/>
-      <c r="F45" s="256"/>
-      <c r="G45" s="257"/>
-      <c r="H45" s="66"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-    </row>
-    <row r="46" spans="1:24" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-    </row>
-    <row r="47" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" s="69" customFormat="1" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="67"/>
+      <c r="B45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0</v>
+      </c>
+      <c r="E45" s="51"/>
+      <c r="F45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="21">
+        <v>0</v>
+      </c>
+      <c r="I45" s="48"/>
+      <c r="J45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="21">
+        <v>0</v>
+      </c>
+      <c r="M45" s="51"/>
+      <c r="N45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P45" s="21">
+        <v>0</v>
+      </c>
+      <c r="V45" s="262"/>
+      <c r="W45" s="263"/>
+      <c r="X45" s="68"/>
+    </row>
+    <row r="46" spans="1:24" s="40" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="41"/>
+      <c r="B46" s="260" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="261"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="123"/>
+      <c r="P46" s="104"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+    </row>
+    <row r="47" spans="1:24" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="86"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="86"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
+      <c r="B47" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="65"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="65"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="65"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="65"/>
       <c r="P47" s="51"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="48"/>
     </row>
     <row r="48" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="46"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="86"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="86"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-    </row>
-    <row r="49" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="46"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="86"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="86"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
-    </row>
-    <row r="50" spans="1:24" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="251"/>
-      <c r="G50" s="252"/>
-      <c r="H50" s="252"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
-    </row>
-    <row r="51" spans="1:24" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="49"/>
+      <c r="F48" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="49"/>
+      <c r="J48" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="49"/>
+      <c r="N48" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="P48" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="46"/>
+      <c r="W48" s="50"/>
+      <c r="X48" s="48"/>
+    </row>
+    <row r="49" spans="1:24" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="17">
+        <v>0</v>
+      </c>
+      <c r="E49" s="48"/>
+      <c r="F49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="17">
+        <v>0</v>
+      </c>
+      <c r="I49" s="48"/>
+      <c r="J49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="17">
+        <v>0</v>
+      </c>
+      <c r="M49" s="48"/>
+      <c r="N49" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="17">
+        <v>0</v>
+      </c>
+      <c r="V49" s="46"/>
+      <c r="W49" s="72"/>
+      <c r="X49" s="48"/>
+    </row>
+    <row r="50" spans="1:24" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="19">
+        <v>0</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="19">
+        <v>0</v>
+      </c>
+      <c r="I50" s="48"/>
+      <c r="J50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="19">
+        <v>0</v>
+      </c>
+      <c r="M50" s="48"/>
+      <c r="N50" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="67"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="246"/>
-      <c r="G52" s="250"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="70"/>
-      <c r="M52" s="70"/>
-    </row>
-    <row r="53" spans="1:24" s="69" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="E53" s="66"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="66"/>
-      <c r="V53" s="248"/>
-      <c r="W53" s="249"/>
-      <c r="X53" s="68"/>
-    </row>
-    <row r="54" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="41"/>
-      <c r="E54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="V54" s="49"/>
-      <c r="W54" s="49"/>
-      <c r="X54" s="49"/>
-    </row>
-    <row r="55" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-      <c r="E55" s="48"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="86"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="48"/>
-    </row>
-    <row r="56" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="21">
+        <v>0</v>
+      </c>
+      <c r="I51" s="48"/>
+      <c r="J51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="21">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P51" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="86"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="86"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+    </row>
+    <row r="53" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="46"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="86"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="86"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+    </row>
+    <row r="54" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="46"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="86"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="86"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+    </row>
+    <row r="55" spans="1:24" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="265"/>
+      <c r="G55" s="266"/>
+      <c r="H55" s="266"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+    </row>
+    <row r="56" spans="1:24" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
-      <c r="E56" s="48"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="86"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="86"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="50"/>
-      <c r="X56" s="48"/>
-    </row>
-    <row r="57" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="86"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="86"/>
-      <c r="V57" s="46"/>
-      <c r="W57" s="72"/>
-      <c r="X57" s="48"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="51"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="67"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="260"/>
+      <c r="G57" s="264"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="70"/>
+      <c r="M57" s="70"/>
+    </row>
+    <row r="58" spans="1:24" s="69" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="67"/>
+      <c r="E58" s="66"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="75"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="66"/>
+      <c r="V58" s="262"/>
+      <c r="W58" s="263"/>
+      <c r="X58" s="68"/>
+    </row>
+    <row r="59" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="41"/>
+      <c r="E59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="V59" s="49"/>
+      <c r="W59" s="49"/>
+      <c r="X59" s="49"/>
+    </row>
+    <row r="60" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="E60" s="48"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="86"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="86"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="86"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="47"/>
+      <c r="X60" s="48"/>
+    </row>
+    <row r="61" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5"/>
+      <c r="E61" s="48"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="86"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="86"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="50"/>
+      <c r="X61" s="48"/>
+    </row>
+    <row r="62" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="86"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="72"/>
+      <c r="X62" s="48"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+    </row>
+    <row r="65" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N37:P37"/>
+  <mergeCells count="13">
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="F2:J4"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="N24:P24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6387,7 +7026,7 @@
   </sheetPr>
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -6432,38 +7071,38 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="144" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="235" t="s">
+      <c r="E2" s="145"/>
+      <c r="F2" s="249" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="149"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="6"/>
       <c r="M2" s="52"/>
       <c r="R2" s="5"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="258" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="245"/>
+      <c r="C3" s="259"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="149"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="146"/>
       <c r="L3" s="6"/>
       <c r="M3" s="52"/>
       <c r="R3" s="5"/>
@@ -6473,28 +7112,28 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="243"/>
-      <c r="K4" s="149"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="257"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="6"/>
       <c r="M4" s="52"/>
       <c r="R4" s="5"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="32.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="267" t="s">
+      <c r="B5" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="229"/>
+      <c r="C5" s="244"/>
       <c r="D5" s="113"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
       <c r="I5" s="58"/>
       <c r="J5" s="58"/>
       <c r="K5" s="58"/>
@@ -6527,19 +7166,19 @@
     </row>
     <row r="7" spans="1:21" ht="59.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="266" t="s">
+      <c r="B7" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="266"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
-      <c r="H7" s="266"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
-      <c r="K7" s="266"/>
-      <c r="L7" s="266"/>
+      <c r="C7" s="270"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="270"/>
+      <c r="F7" s="270"/>
+      <c r="G7" s="270"/>
+      <c r="H7" s="270"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="270"/>
+      <c r="L7" s="270"/>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
@@ -6549,23 +7188,23 @@
     </row>
     <row r="8" spans="1:21" s="94" customFormat="1" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="90"/>
-      <c r="B8" s="263" t="s">
+      <c r="B8" s="267" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="264"/>
-      <c r="D8" s="265"/>
+      <c r="C8" s="268"/>
+      <c r="D8" s="269"/>
       <c r="E8" s="93"/>
-      <c r="F8" s="263" t="s">
+      <c r="F8" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="264"/>
-      <c r="H8" s="265"/>
+      <c r="G8" s="268"/>
+      <c r="H8" s="269"/>
       <c r="I8" s="58"/>
-      <c r="J8" s="263" t="s">
+      <c r="J8" s="267" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="264"/>
-      <c r="L8" s="265"/>
+      <c r="K8" s="268"/>
+      <c r="L8" s="269"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
@@ -6746,24 +7385,24 @@
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:21" s="79" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
-      <c r="B15" s="263" t="s">
+      <c r="A15" s="158"/>
+      <c r="B15" s="267" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="264"/>
-      <c r="D15" s="265"/>
+      <c r="C15" s="268"/>
+      <c r="D15" s="269"/>
       <c r="E15" s="93"/>
-      <c r="F15" s="263" t="s">
+      <c r="F15" s="267" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="264"/>
-      <c r="H15" s="265"/>
+      <c r="G15" s="268"/>
+      <c r="H15" s="269"/>
       <c r="I15" s="58"/>
-      <c r="J15" s="263" t="s">
+      <c r="J15" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="264"/>
-      <c r="L15" s="265"/>
+      <c r="K15" s="268"/>
+      <c r="L15" s="269"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
@@ -6772,7 +7411,7 @@
       <c r="T15" s="80"/>
     </row>
     <row r="16" spans="1:21" s="40" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="54" t="s">
         <v>6</v>
       </c>
@@ -6810,11 +7449,11 @@
       <c r="T16" s="43"/>
     </row>
     <row r="17" spans="1:21" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="168" t="s">
+      <c r="C17" s="165" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="17">
@@ -6848,7 +7487,7 @@
       <c r="T17" s="40"/>
     </row>
     <row r="18" spans="1:21" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
@@ -6884,7 +7523,7 @@
       <c r="P18" s="58"/>
     </row>
     <row r="19" spans="1:21" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="11" t="s">
         <v>16</v>
       </c>
@@ -6920,19 +7559,19 @@
       <c r="P19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="171"/>
+      <c r="A20" s="158"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="168"/>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="267" t="s">
+      <c r="K20" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="229"/>
+      <c r="L20" s="244"/>
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
@@ -6941,33 +7580,33 @@
     </row>
     <row r="21" spans="1:21" s="94" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="90"/>
-      <c r="B21" s="268" t="s">
+      <c r="B21" s="272" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="268"/>
-      <c r="D21" s="268"/>
+      <c r="C21" s="272"/>
+      <c r="D21" s="272"/>
       <c r="E21" s="93"/>
-      <c r="F21" s="269"/>
-      <c r="G21" s="270"/>
-      <c r="H21" s="271"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="169"/>
-      <c r="O21" s="169"/>
-      <c r="P21" s="169"/>
+      <c r="F21" s="273"/>
+      <c r="G21" s="274"/>
+      <c r="H21" s="275"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="166"/>
+      <c r="P21" s="166"/>
       <c r="R21" s="90"/>
       <c r="S21" s="95"/>
     </row>
     <row r="22" spans="1:21" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="41"/>
-      <c r="B22" s="273" t="s">
+      <c r="B22" s="277" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="274"/>
-      <c r="D22" s="274"/>
+      <c r="C22" s="278"/>
+      <c r="D22" s="278"/>
       <c r="E22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
@@ -7081,15 +7720,15 @@
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:21" ht="7.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="164"/>
-      <c r="B27" s="272"/>
-      <c r="C27" s="272"/>
-      <c r="D27" s="272"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="166"/>
+      <c r="A27" s="161"/>
+      <c r="B27" s="276"/>
+      <c r="C27" s="276"/>
+      <c r="D27" s="276"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="163"/>
       <c r="J27" s="46"/>
       <c r="K27" s="47"/>
       <c r="L27" s="86"/>
@@ -7100,29 +7739,29 @@
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:21" s="79" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="164"/>
-      <c r="B28" s="273" t="s">
+      <c r="A28" s="161"/>
+      <c r="B28" s="277" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="274"/>
-      <c r="D28" s="274"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
+      <c r="C28" s="278"/>
+      <c r="D28" s="278"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
       <c r="I28" s="78"/>
-      <c r="J28" s="275"/>
-      <c r="K28" s="276"/>
-      <c r="L28" s="276"/>
+      <c r="J28" s="279"/>
+      <c r="K28" s="280"/>
+      <c r="L28" s="280"/>
       <c r="M28" s="93"/>
-      <c r="N28" s="275"/>
-      <c r="O28" s="276"/>
-      <c r="P28" s="276"/>
+      <c r="N28" s="279"/>
+      <c r="O28" s="280"/>
+      <c r="P28" s="280"/>
       <c r="S28" s="80"/>
       <c r="T28" s="80"/>
     </row>
     <row r="29" spans="1:21" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="164"/>
+      <c r="A29" s="161"/>
       <c r="B29" s="54" t="s">
         <v>6</v>
       </c>
@@ -7132,10 +7771,10 @@
       <c r="D29" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
       <c r="K29" s="49"/>
@@ -7148,20 +7787,20 @@
       <c r="T29" s="43"/>
     </row>
     <row r="30" spans="1:21" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="164"/>
+      <c r="A30" s="161"/>
       <c r="B30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="167" t="s">
+      <c r="C30" s="164" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="17">
         <v>0</v>
       </c>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="162"/>
       <c r="I30" s="48"/>
       <c r="J30" s="46"/>
       <c r="K30" s="47"/>
@@ -7174,7 +7813,7 @@
       <c r="T30" s="40"/>
     </row>
     <row r="31" spans="1:21" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="164"/>
+      <c r="A31" s="161"/>
       <c r="B31" s="12" t="s">
         <v>4</v>
       </c>
@@ -7184,10 +7823,10 @@
       <c r="D31" s="19">
         <v>0</v>
       </c>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
       <c r="I31" s="48"/>
       <c r="J31" s="46"/>
       <c r="K31" s="50"/>
@@ -7198,7 +7837,7 @@
       <c r="P31" s="86"/>
     </row>
     <row r="32" spans="1:21" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="164"/>
+      <c r="A32" s="161"/>
       <c r="B32" s="11" t="s">
         <v>5</v>
       </c>
@@ -7208,10 +7847,10 @@
       <c r="D32" s="21">
         <v>0</v>
       </c>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
       <c r="I32" s="48"/>
       <c r="J32" s="46"/>
       <c r="K32" s="47"/>
@@ -7222,14 +7861,14 @@
       <c r="P32" s="86"/>
     </row>
     <row r="33" spans="1:24" ht="7.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="164"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="165"/>
+      <c r="A33" s="161"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="162"/>
       <c r="I33" s="48"/>
       <c r="J33" s="46"/>
       <c r="K33" s="47"/>
@@ -7243,16 +7882,16 @@
       <c r="X33" s="2"/>
     </row>
     <row r="34" spans="1:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="164"/>
-      <c r="B34" s="273" t="s">
+      <c r="A34" s="161"/>
+      <c r="B34" s="277" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="274"/>
-      <c r="D34" s="277"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
+      <c r="C34" s="278"/>
+      <c r="D34" s="281"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
       <c r="I34" s="48"/>
       <c r="J34" s="46"/>
       <c r="K34" s="50"/>
@@ -7266,7 +7905,7 @@
       <c r="X34" s="48"/>
     </row>
     <row r="35" spans="1:24" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="164"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="54" t="s">
         <v>6</v>
       </c>
@@ -7276,10 +7915,10 @@
       <c r="D35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
       <c r="I35" s="48"/>
       <c r="J35" s="46"/>
       <c r="K35" s="47"/>
@@ -7292,7 +7931,7 @@
       <c r="X35" s="48"/>
     </row>
     <row r="36" spans="1:24" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="164"/>
+      <c r="A36" s="161"/>
       <c r="B36" s="10" t="s">
         <v>3</v>
       </c>
@@ -7302,10 +7941,10 @@
       <c r="D36" s="17">
         <v>0</v>
       </c>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
       <c r="I36" s="53"/>
       <c r="J36" s="46"/>
       <c r="K36" s="123"/>
@@ -7338,9 +7977,9 @@
       <c r="K37" s="50"/>
       <c r="L37" s="86"/>
       <c r="M37" s="48"/>
-      <c r="N37" s="231"/>
-      <c r="O37" s="232"/>
-      <c r="P37" s="233"/>
+      <c r="N37" s="245"/>
+      <c r="O37" s="246"/>
+      <c r="P37" s="247"/>
       <c r="R37" s="46"/>
       <c r="S37" s="50"/>
       <c r="T37" s="48"/>
@@ -7375,46 +8014,46 @@
     </row>
     <row r="39" spans="1:24" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
-      <c r="B39" s="231" t="s">
+      <c r="B39" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="232"/>
-      <c r="D39" s="278"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="138"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="282"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="135"/>
       <c r="G39" s="47"/>
       <c r="H39" s="86"/>
       <c r="I39" s="48"/>
       <c r="J39" s="51"/>
-      <c r="K39" s="139"/>
+      <c r="K39" s="136"/>
       <c r="L39" s="118"/>
       <c r="M39" s="118"/>
-      <c r="N39" s="234"/>
-      <c r="O39" s="234"/>
-      <c r="P39" s="234"/>
+      <c r="N39" s="248"/>
+      <c r="O39" s="248"/>
+      <c r="P39" s="248"/>
       <c r="Q39" s="63"/>
       <c r="R39" s="63"/>
       <c r="S39" s="63"/>
       <c r="T39" s="64"/>
     </row>
     <row r="40" spans="1:24" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="161"/>
-      <c r="B40" s="162"/>
-      <c r="C40" s="162"/>
-      <c r="D40" s="162"/>
-      <c r="E40" s="162"/>
+      <c r="A40" s="158"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
       <c r="I40" s="113"/>
       <c r="M40" s="118"/>
       <c r="N40" s="118"/>
       <c r="O40" s="118"/>
-      <c r="P40" s="163"/>
+      <c r="P40" s="160"/>
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:24" s="69" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="67"/>
       <c r="E41" s="66"/>
-      <c r="F41" s="246"/>
-      <c r="G41" s="250"/>
+      <c r="F41" s="260"/>
+      <c r="G41" s="264"/>
       <c r="H41" s="68"/>
       <c r="I41" s="70"/>
       <c r="M41" s="70"/>
@@ -7432,8 +8071,8 @@
       <c r="N42" s="75"/>
       <c r="O42" s="65"/>
       <c r="P42" s="66"/>
-      <c r="V42" s="248"/>
-      <c r="W42" s="249"/>
+      <c r="V42" s="262"/>
+      <c r="W42" s="263"/>
       <c r="X42" s="68"/>
     </row>
     <row r="43" spans="1:24" s="40" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
